--- a/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD3FA10D-A5E1-4AE2-A635-3DBD2251D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{865FFB7C-5FA6-4112-8D68-9064C4EB1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7251CB2B-098B-4AB7-9EEF-DD542DCF9968}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AD44E52-C7B8-427E-91A6-2E33AD3D3B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="116">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -110,70 +110,88 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,2%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>99,61%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>97,3%</t>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -182,7 +200,7 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,15%</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -191,13 +209,13 @@
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,87%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>95,39%</t>
+    <t>95,85%</t>
   </si>
   <si>
     <t>99,31%</t>
@@ -206,7 +224,7 @@
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,23%</t>
+    <t>98,13%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -215,67 +233,73 @@
     <t>1,76%</t>
   </si>
   <si>
+    <t>2,6%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
     <t>99,78%</t>
   </si>
   <si>
-    <t>99,29%</t>
+    <t>99,04%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -290,7 +314,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,8%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -299,16 +323,13 @@
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
     <t>99,43%</t>
   </si>
   <si>
     <t>99,37%</t>
   </si>
   <si>
-    <t>98,2%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>99,85%</t>
@@ -317,9 +338,6 @@
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
     <t>99,92%</t>
   </si>
   <si>
@@ -329,19 +347,16 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -350,25 +365,22 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,41%</t>
+    <t>99,4%</t>
   </si>
   <si>
     <t>99,93%</t>
   </si>
   <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>99,82%</t>
+    <t>99,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7694EDA2-1F71-40CF-AEED-2ECAB5EDE922}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31E8BC7-727F-4B20-86B9-54FCDD6E27BC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1098,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1113,10 +1125,10 @@
         <v>210196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -1128,10 +1140,10 @@
         <v>253814</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1143,10 +1155,10 @@
         <v>464010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1205,7 +1217,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1217,13 +1229,13 @@
         <v>700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1232,13 +1244,13 @@
         <v>1972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1247,13 +1259,13 @@
         <v>2672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1268,10 +1280,10 @@
         <v>96964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -1283,13 +1295,13 @@
         <v>153294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>332</v>
@@ -1298,13 +1310,13 @@
         <v>250258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1360,7 +1372,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1372,13 +1384,13 @@
         <v>1746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1393,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1402,13 +1414,13 @@
         <v>1746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,10 +1435,10 @@
         <v>145404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1441,7 +1453,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1453,10 +1465,10 @@
         <v>352565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1515,7 +1527,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1533,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1548,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1557,13 +1569,13 @@
         <v>401</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1581,7 +1593,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1593,10 +1605,10 @@
         <v>78955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1608,10 +1620,10 @@
         <v>156997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1670,7 +1682,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1688,7 +1700,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1703,7 +1715,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1736,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1751,7 +1763,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1766,7 +1778,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1825,7 +1837,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1843,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1852,13 +1864,13 @@
         <v>1434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1867,13 +1879,13 @@
         <v>1434</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1891,7 +1903,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1903,10 +1915,10 @@
         <v>327057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1930,10 @@
         <v>638970</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1980,7 +1992,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1998,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2007,13 +2019,13 @@
         <v>2638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2022,13 +2034,13 @@
         <v>2638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,7 +2058,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2055,16 +2067,16 @@
         <v>512</v>
       </c>
       <c r="I26" s="7">
-        <v>418716</v>
+        <v>418715</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>845</v>
@@ -2073,13 +2085,13 @@
         <v>835446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,7 +2118,7 @@
         <v>515</v>
       </c>
       <c r="I27" s="7">
-        <v>421354</v>
+        <v>421353</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -2147,13 +2159,13 @@
         <v>3522</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -2162,13 +2174,13 @@
         <v>6605</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -2177,13 +2189,13 @@
         <v>10127</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2210,13 @@
         <v>1514850</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H29" s="7">
         <v>2362</v>
@@ -2213,13 +2225,13 @@
         <v>1675929</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>3817</v>
@@ -2228,13 +2240,13 @@
         <v>3190779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,7 +2302,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865FFB7C-5FA6-4112-8D68-9064C4EB1C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B25714-FD32-4509-A774-CD3E716CC281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4AD44E52-C7B8-427E-91A6-2E33AD3D3B5C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AC7D4C3-A3C1-46B7-BEC6-8AA56E600F61}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31E8BC7-727F-4B20-86B9-54FCDD6E27BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2598DE0-2CC5-45AC-A28A-AA73A339016B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7B25714-FD32-4509-A774-CD3E716CC281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{106EC4F2-7F5C-473A-AE73-059DBEF7014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7AC7D4C3-A3C1-46B7-BEC6-8AA56E600F61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17D8E48C-AB14-40A7-B0A9-CF93424728E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -110,277 +110,265 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
   </si>
   <si>
     <t>99,68%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>99,84%</t>
+    <t>99,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2598DE0-2CC5-45AC-A28A-AA73A339016B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E78B8B-0F2C-4DD6-8960-E4873A5CCCCB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1110,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1125,10 +1113,10 @@
         <v>210196</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -1140,10 +1128,10 @@
         <v>253814</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1155,10 +1143,10 @@
         <v>464010</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1217,7 +1205,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1229,13 +1217,13 @@
         <v>700</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -1244,13 +1232,13 @@
         <v>1972</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1259,13 +1247,13 @@
         <v>2672</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1280,10 +1268,10 @@
         <v>96964</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -1295,13 +1283,13 @@
         <v>153294</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>332</v>
@@ -1310,13 +1298,13 @@
         <v>250258</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1372,7 +1360,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1384,13 +1372,13 @@
         <v>1746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1405,7 +1393,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1414,13 +1402,13 @@
         <v>1746</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1435,10 +1423,10 @@
         <v>145404</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1453,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1465,10 +1453,10 @@
         <v>352565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1527,7 +1515,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1545,7 +1533,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1560,7 +1548,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1569,13 +1557,13 @@
         <v>401</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1593,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1605,10 +1593,10 @@
         <v>78955</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1620,10 +1608,10 @@
         <v>156997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1682,7 +1670,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1700,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1715,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1748,7 +1736,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1763,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1778,7 +1766,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1837,7 +1825,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1855,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1864,13 +1852,13 @@
         <v>1434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -1879,13 +1867,13 @@
         <v>1434</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,7 +1891,7 @@
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1915,10 +1903,10 @@
         <v>327057</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1930,10 +1918,10 @@
         <v>638970</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1992,7 +1980,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2010,7 +1998,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2019,13 +2007,13 @@
         <v>2638</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -2034,13 +2022,13 @@
         <v>2638</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2067,16 +2055,16 @@
         <v>512</v>
       </c>
       <c r="I26" s="7">
-        <v>418715</v>
+        <v>418716</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>845</v>
@@ -2085,13 +2073,13 @@
         <v>835446</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2118,7 +2106,7 @@
         <v>515</v>
       </c>
       <c r="I27" s="7">
-        <v>421353</v>
+        <v>421354</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -2159,13 +2147,13 @@
         <v>3522</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
@@ -2174,13 +2162,13 @@
         <v>6605</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -2189,13 +2177,13 @@
         <v>10127</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2198,13 @@
         <v>1514850</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H29" s="7">
         <v>2362</v>
@@ -2225,13 +2213,13 @@
         <v>1675929</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M29" s="7">
         <v>3817</v>
@@ -2240,13 +2228,13 @@
         <v>3190779</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2302,7 +2290,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21D_5_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{106EC4F2-7F5C-473A-AE73-059DBEF7014D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DFC967A-251D-4C09-A5F8-69FED820377C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17D8E48C-AB14-40A7-B0A9-CF93424728E1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B8D94D89-835F-435E-8FF0-B92E6FB7AF5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="114">
   <si>
     <t>Población que, necesitando atención sanitaria psiquiátrica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,82%)</t>
   </si>
@@ -107,19 +107,142 @@
     <t>Cadiz</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>0,51%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,49%</t>
@@ -128,247 +251,130 @@
     <t>97,8%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>99,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E78B8B-0F2C-4DD6-8960-E4873A5CCCCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAFC5D1-09D4-41DD-8206-D1677DCB2437}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -955,7 +961,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -970,7 +976,7 @@
         <v>233</v>
       </c>
       <c r="I5" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -985,7 +991,7 @@
         <v>386</v>
       </c>
       <c r="N5" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1006,7 +1012,7 @@
         <v>153</v>
       </c>
       <c r="D6" s="7">
-        <v>125492</v>
+        <v>154266</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1021,7 +1027,7 @@
         <v>233</v>
       </c>
       <c r="I6" s="7">
-        <v>117523</v>
+        <v>126317</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1036,7 +1042,7 @@
         <v>386</v>
       </c>
       <c r="N6" s="7">
-        <v>243015</v>
+        <v>280583</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1059,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1077</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1074,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>25</v>
@@ -1089,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1236</v>
+        <v>1165</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>27</v>
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1110,13 +1116,13 @@
         <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>210196</v>
+        <v>210269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -1125,13 +1131,13 @@
         <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>253814</v>
+        <v>235972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -1140,13 +1146,13 @@
         <v>482</v>
       </c>
       <c r="N8" s="7">
-        <v>464010</v>
+        <v>446241</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -1176,7 +1182,7 @@
         <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>253973</v>
+        <v>236133</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1191,7 +1197,7 @@
         <v>484</v>
       </c>
       <c r="N9" s="7">
-        <v>465246</v>
+        <v>447406</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1205,7 +1211,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1214,46 +1220,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>1972</v>
+        <v>1833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>2672</v>
+        <v>2525</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1265,13 +1271,13 @@
         <v>112</v>
       </c>
       <c r="D11" s="7">
-        <v>96964</v>
+        <v>94219</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -1280,31 +1286,31 @@
         <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>153294</v>
+        <v>143708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>332</v>
       </c>
       <c r="N11" s="7">
-        <v>250258</v>
+        <v>237928</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1316,7 +1322,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="7">
-        <v>97664</v>
+        <v>94912</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1331,7 +1337,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>155266</v>
+        <v>145541</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1346,7 +1352,7 @@
         <v>336</v>
       </c>
       <c r="N12" s="7">
-        <v>252930</v>
+        <v>240453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1360,7 +1366,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1369,16 +1375,16 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1393,22 +1399,22 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>1746</v>
+        <v>1684</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,13 +1426,13 @@
         <v>129</v>
       </c>
       <c r="D14" s="7">
-        <v>145404</v>
+        <v>139693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1435,13 +1441,13 @@
         <v>278</v>
       </c>
       <c r="I14" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1450,13 +1456,13 @@
         <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>352565</v>
+        <v>386253</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -1471,7 +1477,7 @@
         <v>131</v>
       </c>
       <c r="D15" s="7">
-        <v>147150</v>
+        <v>141377</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1486,7 +1492,7 @@
         <v>278</v>
       </c>
       <c r="I15" s="7">
-        <v>207161</v>
+        <v>246560</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1501,7 +1507,7 @@
         <v>409</v>
       </c>
       <c r="N15" s="7">
-        <v>354311</v>
+        <v>387937</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1533,37 +1539,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1581,13 @@
         <v>108</v>
       </c>
       <c r="D17" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1590,13 +1596,13 @@
         <v>162</v>
       </c>
       <c r="I17" s="7">
-        <v>78955</v>
+        <v>70999</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1605,13 +1611,13 @@
         <v>270</v>
       </c>
       <c r="N17" s="7">
-        <v>156997</v>
+        <v>141703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1626,7 +1632,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>78042</v>
+        <v>70704</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1641,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>79356</v>
+        <v>71362</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1656,7 +1662,7 @@
         <v>271</v>
       </c>
       <c r="N18" s="7">
-        <v>157398</v>
+        <v>142066</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1670,7 +1676,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1688,7 +1694,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1703,7 +1709,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1718,7 +1724,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1736,13 @@
         <v>177</v>
       </c>
       <c r="D20" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -1745,13 +1751,13 @@
         <v>200</v>
       </c>
       <c r="I20" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1760,13 +1766,13 @@
         <v>377</v>
       </c>
       <c r="N20" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1781,7 +1787,7 @@
         <v>177</v>
       </c>
       <c r="D21" s="7">
-        <v>130109</v>
+        <v>125594</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1796,7 +1802,7 @@
         <v>200</v>
       </c>
       <c r="I21" s="7">
-        <v>119410</v>
+        <v>110952</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1811,7 +1817,7 @@
         <v>377</v>
       </c>
       <c r="N21" s="7">
-        <v>249518</v>
+        <v>236546</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1825,7 +1831,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1843,37 +1849,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>1434</v>
+        <v>1338</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>1434</v>
+        <v>1338</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1891,13 @@
         <v>284</v>
       </c>
       <c r="D23" s="7">
-        <v>311912</v>
+        <v>311572</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -1900,13 +1906,13 @@
         <v>434</v>
       </c>
       <c r="I23" s="7">
-        <v>327057</v>
+        <v>305516</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -1915,13 +1921,13 @@
         <v>718</v>
       </c>
       <c r="N23" s="7">
-        <v>638970</v>
+        <v>617088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>17</v>
@@ -1936,7 +1942,7 @@
         <v>284</v>
       </c>
       <c r="D24" s="7">
-        <v>311912</v>
+        <v>311572</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1951,7 +1957,7 @@
         <v>436</v>
       </c>
       <c r="I24" s="7">
-        <v>328491</v>
+        <v>306854</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>19</v>
@@ -1966,7 +1972,7 @@
         <v>720</v>
       </c>
       <c r="N24" s="7">
-        <v>640404</v>
+        <v>618426</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -1980,7 +1986,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -1998,37 +2004,37 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
       </c>
       <c r="I25" s="7">
-        <v>2638</v>
+        <v>2243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>2638</v>
+        <v>2243</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2046,13 @@
         <v>333</v>
       </c>
       <c r="D26" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>19</v>
@@ -2055,31 +2061,31 @@
         <v>512</v>
       </c>
       <c r="I26" s="7">
-        <v>418716</v>
+        <v>346072</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
         <v>845</v>
       </c>
       <c r="N26" s="7">
-        <v>835446</v>
+        <v>899987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2097,7 @@
         <v>333</v>
       </c>
       <c r="D27" s="7">
-        <v>416730</v>
+        <v>553916</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>19</v>
@@ -2106,7 +2112,7 @@
         <v>515</v>
       </c>
       <c r="I27" s="7">
-        <v>421354</v>
+        <v>348315</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>19</v>
@@ -2121,7 +2127,7 @@
         <v>848</v>
       </c>
       <c r="N27" s="7">
-        <v>838084</v>
+        <v>902230</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>19</v>
@@ -2144,46 +2150,46 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>3522</v>
+        <v>3381</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>6605</v>
+        <v>5938</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
       </c>
       <c r="N28" s="7">
-        <v>10127</v>
+        <v>9319</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,46 +2201,46 @@
         <v>1455</v>
       </c>
       <c r="D29" s="7">
-        <v>1514850</v>
+        <v>1660233</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>2362</v>
       </c>
       <c r="I29" s="7">
-        <v>1675929</v>
+        <v>1586096</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M29" s="7">
         <v>3817</v>
       </c>
       <c r="N29" s="7">
-        <v>3190779</v>
+        <v>3246329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,7 +2252,7 @@
         <v>1459</v>
       </c>
       <c r="D30" s="7">
-        <v>1518372</v>
+        <v>1663614</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>19</v>
@@ -2261,7 +2267,7 @@
         <v>2372</v>
       </c>
       <c r="I30" s="7">
-        <v>1682534</v>
+        <v>1592034</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>19</v>
@@ -2276,7 +2282,7 @@
         <v>3831</v>
       </c>
       <c r="N30" s="7">
-        <v>3200906</v>
+        <v>3255648</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>19</v>
@@ -2290,7 +2296,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
